--- a/mainexcel/squad3/Тэ-22-2.xlsx
+++ b/mainexcel/squad3/Тэ-22-2.xlsx
@@ -184,6 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -719,23 +720,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="13" width="2.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="2.28515625"/>
+    <col min="2" max="2" customWidth="true" width="15.7109375"/>
+    <col min="3" max="3" customWidth="true" style="2" width="12.85546875"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375"/>
+    <col min="5" max="5" customWidth="true" style="2" width="13.28515625"/>
+    <col min="6" max="6" customWidth="true" width="2.7109375"/>
+    <col min="7" max="7" customWidth="true" style="1" width="2.28515625"/>
+    <col min="8" max="8" customWidth="true" width="15.7109375"/>
+    <col min="9" max="9" customWidth="true" style="2" width="17.42578125"/>
+    <col min="10" max="10" customWidth="true" width="15.7109375"/>
+    <col min="11" max="11" customWidth="true" style="2" width="15.5703125"/>
+    <col min="12" max="12" customWidth="true" width="2.7109375"/>
+    <col min="13" max="13" customWidth="true" style="1" width="2.28515625"/>
+    <col min="14" max="14" customWidth="true" width="15.7109375"/>
+    <col min="15" max="15" customWidth="true" style="2" width="15.42578125"/>
+    <col min="16" max="16" customWidth="true" width="15.7109375"/>
+    <col min="17" max="17" customWidth="true" style="2" width="15.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75">
@@ -1735,132 +1736,93 @@
     </row>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="M32:M33"/>
     <mergeCell ref="H35:J35"/>
-    <mergeCell ref="G34:G35"/>
     <mergeCell ref="J36:K36"/>
-    <mergeCell ref="G36:G37"/>
     <mergeCell ref="M29:Q29"/>
     <mergeCell ref="N30:Q30"/>
     <mergeCell ref="N31:P31"/>
-    <mergeCell ref="M30:M31"/>
     <mergeCell ref="N32:Q32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A36:A37"/>
     <mergeCell ref="G29:K29"/>
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="H31:J31"/>
-    <mergeCell ref="G30:G31"/>
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="H33:J33"/>
-    <mergeCell ref="G32:G33"/>
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A32:A33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A34:A35"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="M27:M28"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A30:A31"/>
     <mergeCell ref="M22:Q22"/>
     <mergeCell ref="N23:Q23"/>
     <mergeCell ref="N24:P24"/>
-    <mergeCell ref="M23:M24"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="M25:M26"/>
     <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="G23:G24"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="H26:J26"/>
-    <mergeCell ref="G25:G26"/>
     <mergeCell ref="H27:I27"/>
-    <mergeCell ref="G27:G28"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A25:A26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A27:A28"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="N19:Q19"/>
     <mergeCell ref="N20:P20"/>
-    <mergeCell ref="M19:M20"/>
     <mergeCell ref="A21:Q21"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A23:A24"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="G22:K22"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H20:J20"/>
-    <mergeCell ref="G19:G20"/>
     <mergeCell ref="M14:Q14"/>
     <mergeCell ref="N15:Q15"/>
     <mergeCell ref="N16:P16"/>
-    <mergeCell ref="M15:M16"/>
     <mergeCell ref="N17:Q17"/>
     <mergeCell ref="N18:P18"/>
-    <mergeCell ref="M17:M18"/>
     <mergeCell ref="G14:K14"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:J16"/>
-    <mergeCell ref="G15:G16"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="G17:G18"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A15:A16"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A17:A18"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="N6:O6"/>
-    <mergeCell ref="M6:M7"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="N8:Q8"/>
     <mergeCell ref="N9:P9"/>
-    <mergeCell ref="M8:M9"/>
     <mergeCell ref="H8:I8"/>
-    <mergeCell ref="G8:G9"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:J11"/>
-    <mergeCell ref="G10:G11"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H5:J5"/>
-    <mergeCell ref="G4:G5"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="N4:O4"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
